--- a/Code/Results/Cases/Case_3_140/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_140/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9972155131201913</v>
+        <v>1.043795886242208</v>
       </c>
       <c r="D2">
-        <v>1.018956392088033</v>
+        <v>1.04807019863398</v>
       </c>
       <c r="E2">
-        <v>1.003548690079523</v>
+        <v>1.041702456431755</v>
       </c>
       <c r="F2">
-        <v>1.025108655825708</v>
+        <v>1.058069750001876</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043149986566831</v>
+        <v>1.038457609427218</v>
       </c>
       <c r="J2">
-        <v>1.019479827878192</v>
+        <v>1.048864414368418</v>
       </c>
       <c r="K2">
-        <v>1.03015780322649</v>
+        <v>1.050831070492827</v>
       </c>
       <c r="L2">
-        <v>1.014958806419719</v>
+        <v>1.04448122347841</v>
       </c>
       <c r="M2">
-        <v>1.036228928151502</v>
+        <v>1.060802991205485</v>
       </c>
       <c r="N2">
-        <v>1.02092760616975</v>
+        <v>1.050353922143251</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004417527059053</v>
+        <v>1.045248276913191</v>
       </c>
       <c r="D3">
-        <v>1.024263565173076</v>
+        <v>1.049151377603628</v>
       </c>
       <c r="E3">
-        <v>1.009529164767501</v>
+        <v>1.042954254642426</v>
       </c>
       <c r="F3">
-        <v>1.030940388884406</v>
+        <v>1.059282513436259</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045084909754083</v>
+        <v>1.038765513952434</v>
       </c>
       <c r="J3">
-        <v>1.02478848599024</v>
+        <v>1.049961307204745</v>
       </c>
       <c r="K3">
-        <v>1.034595123691898</v>
+        <v>1.051723523757145</v>
       </c>
       <c r="L3">
-        <v>1.020041552953642</v>
+        <v>1.045542546163096</v>
       </c>
       <c r="M3">
-        <v>1.041192114725005</v>
+        <v>1.061828703637689</v>
       </c>
       <c r="N3">
-        <v>1.026243803185228</v>
+        <v>1.051452372693221</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008945235279727</v>
+        <v>1.046187122098743</v>
       </c>
       <c r="D4">
-        <v>1.027603263205052</v>
+        <v>1.049849976443717</v>
       </c>
       <c r="E4">
-        <v>1.013295277325725</v>
+        <v>1.043763648928317</v>
       </c>
       <c r="F4">
-        <v>1.034613555950088</v>
+        <v>1.060066551454325</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0462895788254</v>
+        <v>1.038962965834232</v>
       </c>
       <c r="J4">
-        <v>1.028122856233302</v>
+        <v>1.050669715832677</v>
       </c>
       <c r="K4">
-        <v>1.037379575750661</v>
+        <v>1.052299413263583</v>
       </c>
       <c r="L4">
-        <v>1.023235845217237</v>
+        <v>1.046228137410463</v>
       </c>
       <c r="M4">
-        <v>1.044311430674167</v>
+        <v>1.062491140053672</v>
       </c>
       <c r="N4">
-        <v>1.029582908616493</v>
+        <v>1.052161787342661</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010818671478797</v>
+        <v>1.04658159124978</v>
       </c>
       <c r="D5">
-        <v>1.028985783007244</v>
+        <v>1.050143432077041</v>
       </c>
       <c r="E5">
-        <v>1.014855017609981</v>
+        <v>1.044103778008186</v>
       </c>
       <c r="F5">
-        <v>1.036134926666724</v>
+        <v>1.060395996632397</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04678514336871</v>
+        <v>1.039045548957054</v>
       </c>
       <c r="J5">
-        <v>1.029501721239229</v>
+        <v>1.050967210535995</v>
       </c>
       <c r="K5">
-        <v>1.038530366816839</v>
+        <v>1.052541140197501</v>
       </c>
       <c r="L5">
-        <v>1.024557212026665</v>
+        <v>1.046516087037975</v>
       </c>
       <c r="M5">
-        <v>1.045601779355426</v>
+        <v>1.062769327881554</v>
       </c>
       <c r="N5">
-        <v>1.030963731768887</v>
+        <v>1.05245970452258</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011131516727574</v>
+        <v>1.046647811541866</v>
       </c>
       <c r="D6">
-        <v>1.029216684717136</v>
+        <v>1.050192690862146</v>
       </c>
       <c r="E6">
-        <v>1.015115560285142</v>
+        <v>1.044160879068674</v>
       </c>
       <c r="F6">
-        <v>1.036389065912564</v>
+        <v>1.060451302385721</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04686772560261</v>
+        <v>1.039059390100977</v>
       </c>
       <c r="J6">
-        <v>1.029731928790383</v>
+        <v>1.051017142538805</v>
       </c>
       <c r="K6">
-        <v>1.03872245629075</v>
+        <v>1.052581705192485</v>
       </c>
       <c r="L6">
-        <v>1.024777844988149</v>
+        <v>1.046564419149627</v>
       </c>
       <c r="M6">
-        <v>1.045817231766886</v>
+        <v>1.062816019315068</v>
       </c>
       <c r="N6">
-        <v>1.031194266241168</v>
+        <v>1.052509707434561</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008970384002208</v>
+        <v>1.046192393877519</v>
       </c>
       <c r="D7">
-        <v>1.027621819535226</v>
+        <v>1.049853898532957</v>
       </c>
       <c r="E7">
-        <v>1.013316209500175</v>
+        <v>1.043768194295908</v>
       </c>
       <c r="F7">
-        <v>1.034633972766236</v>
+        <v>1.060070954158682</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046296242746745</v>
+        <v>1.038964070985001</v>
       </c>
       <c r="J7">
-        <v>1.028141369174649</v>
+        <v>1.050673692225062</v>
       </c>
       <c r="K7">
-        <v>1.037395029201419</v>
+        <v>1.052302644708385</v>
       </c>
       <c r="L7">
-        <v>1.023253584489383</v>
+        <v>1.046231986075346</v>
       </c>
       <c r="M7">
-        <v>1.044328753595371</v>
+        <v>1.062494858389682</v>
       </c>
       <c r="N7">
-        <v>1.02960144784834</v>
+        <v>1.052165769381979</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9996779669526968</v>
+        <v>1.044286928374086</v>
       </c>
       <c r="D8">
-        <v>1.020770217734046</v>
+        <v>1.048435796331541</v>
       </c>
       <c r="E8">
-        <v>1.005592085854913</v>
+        <v>1.042125634766832</v>
       </c>
       <c r="F8">
-        <v>1.027101046309856</v>
+        <v>1.058479756297813</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043813996003379</v>
+        <v>1.038562037090171</v>
       </c>
       <c r="J8">
-        <v>1.02129551482955</v>
+        <v>1.049235397260499</v>
       </c>
       <c r="K8">
-        <v>1.031676005284906</v>
+        <v>1.051133009762967</v>
       </c>
       <c r="L8">
-        <v>1.016696837870297</v>
+        <v>1.044840143932087</v>
       </c>
       <c r="M8">
-        <v>1.037926015536744</v>
+        <v>1.061149899995938</v>
       </c>
       <c r="N8">
-        <v>1.022745871604841</v>
+        <v>1.050725431873591</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9822045175191587</v>
+        <v>1.040921730484249</v>
       </c>
       <c r="D9">
-        <v>1.00791903784331</v>
+        <v>1.045929145500188</v>
       </c>
       <c r="E9">
-        <v>0.9911239716197914</v>
+        <v>1.039226435792704</v>
       </c>
       <c r="F9">
-        <v>1.012999435603273</v>
+        <v>1.055670339356732</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039054594907119</v>
+        <v>1.037839893137452</v>
       </c>
       <c r="J9">
-        <v>1.008401718459055</v>
+        <v>1.046690386822725</v>
       </c>
       <c r="K9">
-        <v>1.020884927599921</v>
+        <v>1.049059669733557</v>
       </c>
       <c r="L9">
-        <v>1.004362716661042</v>
+        <v>1.042378524319849</v>
       </c>
       <c r="M9">
-        <v>1.02588506891757</v>
+        <v>1.05877005744075</v>
       </c>
       <c r="N9">
-        <v>1.009833764564561</v>
+        <v>1.048176807229079</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9696843584707757</v>
+        <v>1.038672843394641</v>
       </c>
       <c r="D10">
-        <v>0.9987431643666845</v>
+        <v>1.044252615305567</v>
       </c>
       <c r="E10">
-        <v>0.9808032914314897</v>
+        <v>1.03729015305504</v>
       </c>
       <c r="F10">
-        <v>1.002949898839302</v>
+        <v>1.053793463360658</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035587159317123</v>
+        <v>1.037349170395984</v>
       </c>
       <c r="J10">
-        <v>0.9991546250987592</v>
+        <v>1.044986368416006</v>
       </c>
       <c r="K10">
-        <v>1.013135148508849</v>
+        <v>1.047668985084953</v>
       </c>
       <c r="L10">
-        <v>0.9955280197995329</v>
+        <v>1.040731148388815</v>
       </c>
       <c r="M10">
-        <v>1.017266095433652</v>
+        <v>1.057176669793846</v>
       </c>
       <c r="N10">
-        <v>1.000573539271037</v>
+        <v>1.046470368920768</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9640218824638228</v>
+        <v>1.037697683170478</v>
       </c>
       <c r="D11">
-        <v>0.9946034638654505</v>
+        <v>1.043525325414452</v>
       </c>
       <c r="E11">
-        <v>0.9761484987818613</v>
+        <v>1.036450837245209</v>
       </c>
       <c r="F11">
-        <v>0.9984207297338351</v>
+        <v>1.052979773550935</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034006693602346</v>
+        <v>1.037134460350637</v>
       </c>
       <c r="J11">
-        <v>0.9949719583563086</v>
+        <v>1.044246711080027</v>
       </c>
       <c r="K11">
-        <v>1.009627873620481</v>
+        <v>1.047064753705517</v>
       </c>
       <c r="L11">
-        <v>0.9915346867933403</v>
+        <v>1.040016270276097</v>
       </c>
       <c r="M11">
-        <v>1.013372490360019</v>
+        <v>1.056485050936561</v>
       </c>
       <c r="N11">
-        <v>0.9963849326620532</v>
+        <v>1.045729661186533</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.961878969227499</v>
+        <v>1.037335251241452</v>
       </c>
       <c r="D12">
-        <v>0.9930386199780735</v>
+        <v>1.04325497200133</v>
       </c>
       <c r="E12">
-        <v>0.9743890671169226</v>
+        <v>1.036138938815684</v>
       </c>
       <c r="F12">
-        <v>0.9967093816112543</v>
+        <v>1.052677379825227</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033406866248871</v>
+        <v>1.037054371807091</v>
       </c>
       <c r="J12">
-        <v>0.9933891343215767</v>
+        <v>1.04397169310935</v>
       </c>
       <c r="K12">
-        <v>1.008300415442867</v>
+        <v>1.046840002578618</v>
       </c>
       <c r="L12">
-        <v>0.9900239494464002</v>
+        <v>1.039750494693594</v>
       </c>
       <c r="M12">
-        <v>1.011899897385881</v>
+        <v>1.056227897768244</v>
       </c>
       <c r="N12">
-        <v>0.9947998608356395</v>
+        <v>1.045454252658792</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9623404832755068</v>
+        <v>1.037413003918786</v>
       </c>
       <c r="D13">
-        <v>0.9933755516571536</v>
+        <v>1.043312973093887</v>
       </c>
       <c r="E13">
-        <v>0.9747678921236927</v>
+        <v>1.036205848466844</v>
       </c>
       <c r="F13">
-        <v>0.9970778249078283</v>
+        <v>1.052742251304154</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033536124822711</v>
+        <v>1.037071566286665</v>
       </c>
       <c r="J13">
-        <v>0.9937300177495737</v>
+        <v>1.044030697980798</v>
       </c>
       <c r="K13">
-        <v>1.008586311050755</v>
+        <v>1.046888226669999</v>
       </c>
       <c r="L13">
-        <v>0.9903492879073392</v>
+        <v>1.039807515303896</v>
       </c>
       <c r="M13">
-        <v>1.012217001243899</v>
+        <v>1.056283069605618</v>
       </c>
       <c r="N13">
-        <v>0.9951412283572043</v>
+        <v>1.045513341323925</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9638455778926207</v>
+        <v>1.037667728840877</v>
       </c>
       <c r="D14">
-        <v>0.9944746811901334</v>
+        <v>1.043502982134024</v>
       </c>
       <c r="E14">
-        <v>0.976003700088911</v>
+        <v>1.036425058492104</v>
       </c>
       <c r="F14">
-        <v>0.9982798754655048</v>
+        <v>1.052954780739702</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033957377810179</v>
+        <v>1.037127847063348</v>
       </c>
       <c r="J14">
-        <v>0.9948417319088272</v>
+        <v>1.044223983674043</v>
       </c>
       <c r="K14">
-        <v>1.009518661392701</v>
+        <v>1.047046182108307</v>
       </c>
       <c r="L14">
-        <v>0.9914103822643159</v>
+        <v>1.039994306066003</v>
       </c>
       <c r="M14">
-        <v>1.013251315439077</v>
+        <v>1.056463799803317</v>
       </c>
       <c r="N14">
-        <v>0.9962545212780792</v>
+        <v>1.045706901505026</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9647675580455861</v>
+        <v>1.037824644702308</v>
       </c>
       <c r="D15">
-        <v>0.995148221059916</v>
+        <v>1.043620025613514</v>
       </c>
       <c r="E15">
-        <v>0.9767610089456737</v>
+        <v>1.036560102430467</v>
       </c>
       <c r="F15">
-        <v>0.9990165796789777</v>
+        <v>1.053085706721385</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034215204567738</v>
+        <v>1.037162478980514</v>
       </c>
       <c r="J15">
-        <v>0.9955227513975035</v>
+        <v>1.044343036607334</v>
       </c>
       <c r="K15">
-        <v>1.010089778460695</v>
+        <v>1.047143462117465</v>
       </c>
       <c r="L15">
-        <v>0.9920604509873769</v>
+        <v>1.040109362340187</v>
       </c>
       <c r="M15">
-        <v>1.013885034832835</v>
+        <v>1.056575119715332</v>
       </c>
       <c r="N15">
-        <v>0.9969365078925436</v>
+        <v>1.045826123507136</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9700547979647881</v>
+        <v>1.038737531945929</v>
       </c>
       <c r="D16">
-        <v>0.9990142163457099</v>
+        <v>1.044300854536116</v>
       </c>
       <c r="E16">
-        <v>0.9811080913567126</v>
+        <v>1.037345836443518</v>
       </c>
       <c r="F16">
-        <v>1.00324654999325</v>
+        <v>1.053847444042551</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035690310192504</v>
+        <v>1.037363373007251</v>
       </c>
       <c r="J16">
-        <v>0.9994282567987571</v>
+        <v>1.045035418562424</v>
       </c>
       <c r="K16">
-        <v>1.013364562104598</v>
+        <v>1.047709042292532</v>
       </c>
       <c r="L16">
-        <v>0.9957893245699939</v>
+        <v>1.040778559370476</v>
       </c>
       <c r="M16">
-        <v>1.017520927158791</v>
+        <v>1.057222534701789</v>
       </c>
       <c r="N16">
-        <v>1.000847559559435</v>
+        <v>1.046519488724021</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9733045178995927</v>
+        <v>1.03930978827277</v>
       </c>
       <c r="D17">
-        <v>1.001393233791494</v>
+        <v>1.044727558585323</v>
       </c>
       <c r="E17">
-        <v>0.9837834611123393</v>
+        <v>1.037838464090466</v>
       </c>
       <c r="F17">
-        <v>1.005850781821951</v>
+        <v>1.054324993597161</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036593843182686</v>
+        <v>1.037488792032279</v>
       </c>
       <c r="J17">
-        <v>1.001828679689464</v>
+        <v>1.045469244433121</v>
       </c>
       <c r="K17">
-        <v>1.015376878592334</v>
+        <v>1.048063262711398</v>
       </c>
       <c r="L17">
-        <v>0.998081927653292</v>
+        <v>1.041197909821026</v>
       </c>
       <c r="M17">
-        <v>1.01975699747703</v>
+        <v>1.057628190691861</v>
       </c>
       <c r="N17">
-        <v>1.003251391325979</v>
+        <v>1.046953930677214</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9751770057270759</v>
+        <v>1.039643443300782</v>
       </c>
       <c r="D18">
-        <v>1.002764970074324</v>
+        <v>1.044976318702931</v>
       </c>
       <c r="E18">
-        <v>0.9853262102156951</v>
+        <v>1.03812571968328</v>
       </c>
       <c r="F18">
-        <v>1.007352816170804</v>
+        <v>1.054603444937047</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037113298203607</v>
+        <v>1.037561732363994</v>
       </c>
       <c r="J18">
-        <v>1.003211746129957</v>
+        <v>1.045722113796293</v>
       </c>
       <c r="K18">
-        <v>1.016536146604425</v>
+        <v>1.048269675400049</v>
       </c>
       <c r="L18">
-        <v>0.9994031325641057</v>
+        <v>1.041442360272428</v>
       </c>
       <c r="M18">
-        <v>1.021045826050445</v>
+        <v>1.057864641966092</v>
       </c>
       <c r="N18">
-        <v>1.004636421879457</v>
+        <v>1.047207159143887</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9758116672750352</v>
+        <v>1.039757188797928</v>
       </c>
       <c r="D19">
-        <v>1.003230060503366</v>
+        <v>1.045061117692865</v>
       </c>
       <c r="E19">
-        <v>0.9858493085725794</v>
+        <v>1.038223652019774</v>
       </c>
       <c r="F19">
-        <v>1.007862158707721</v>
+        <v>1.054698373625105</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037289162038926</v>
+        <v>1.037586566802344</v>
       </c>
       <c r="J19">
-        <v>1.003680509461967</v>
+        <v>1.045808306362332</v>
       </c>
       <c r="K19">
-        <v>1.016929025408094</v>
+        <v>1.048340023308735</v>
       </c>
       <c r="L19">
-        <v>0.9998509730349447</v>
+        <v>1.041525686328582</v>
       </c>
       <c r="M19">
-        <v>1.021482724250046</v>
+        <v>1.057945238551941</v>
       </c>
       <c r="N19">
-        <v>1.005105850909166</v>
+        <v>1.047293474113256</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.97295825775862</v>
+        <v>1.039248404331451</v>
       </c>
       <c r="D20">
-        <v>1.001139647585442</v>
+        <v>1.04468179066569</v>
       </c>
       <c r="E20">
-        <v>0.9834982722572035</v>
+        <v>1.037785618715472</v>
       </c>
       <c r="F20">
-        <v>1.00557314357546</v>
+        <v>1.05427376693176</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036497690794084</v>
+        <v>1.03747535795221</v>
       </c>
       <c r="J20">
-        <v>1.001572917719946</v>
+        <v>1.045422717049018</v>
       </c>
       <c r="K20">
-        <v>1.015162487221682</v>
+        <v>1.048025278729908</v>
       </c>
       <c r="L20">
-        <v>0.997837626432362</v>
+        <v>1.041152932990928</v>
       </c>
       <c r="M20">
-        <v>1.019518698779316</v>
+        <v>1.057584684325529</v>
       </c>
       <c r="N20">
-        <v>1.002995266145128</v>
+        <v>1.046907337218889</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.963403488042627</v>
+        <v>1.037592724664793</v>
       </c>
       <c r="D21">
-        <v>0.9941517837964396</v>
+        <v>1.043447034914885</v>
       </c>
       <c r="E21">
-        <v>0.9756406473068803</v>
+        <v>1.036360510485857</v>
       </c>
       <c r="F21">
-        <v>0.9979267225205954</v>
+        <v>1.052892200379489</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033833689631309</v>
+        <v>1.037111283056197</v>
       </c>
       <c r="J21">
-        <v>0.9945151861766353</v>
+        <v>1.044167073522158</v>
       </c>
       <c r="K21">
-        <v>1.009244805989436</v>
+        <v>1.046999676831357</v>
       </c>
       <c r="L21">
-        <v>0.9910986929853105</v>
+        <v>1.039939307450104</v>
       </c>
       <c r="M21">
-        <v>1.012947480525855</v>
+        <v>1.056410586339854</v>
       </c>
       <c r="N21">
-        <v>0.9959275118134924</v>
+        <v>1.045649910534197</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9571648015620552</v>
+        <v>1.03655049145152</v>
       </c>
       <c r="D22">
-        <v>0.9895997368739708</v>
+        <v>1.042669503600139</v>
       </c>
       <c r="E22">
-        <v>0.9705226804417487</v>
+        <v>1.035463680668631</v>
       </c>
       <c r="F22">
-        <v>0.9929498856228348</v>
+        <v>1.052022666683743</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032084302770265</v>
+        <v>1.0368804318374</v>
       </c>
       <c r="J22">
-        <v>0.9899073991654883</v>
+        <v>1.043375999520116</v>
       </c>
       <c r="K22">
-        <v>1.005380079351225</v>
+        <v>1.046353029168676</v>
       </c>
       <c r="L22">
-        <v>0.9867016132511998</v>
+        <v>1.039174873468775</v>
       </c>
       <c r="M22">
-        <v>1.008662312477385</v>
+        <v>1.055670906224549</v>
       </c>
       <c r="N22">
-        <v>0.9913131812162691</v>
+        <v>1.044857713116334</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9604952127370388</v>
+        <v>1.03710311907066</v>
       </c>
       <c r="D23">
-        <v>0.9920286812146623</v>
+        <v>1.04308180195083</v>
       </c>
       <c r="E23">
-        <v>0.9732535654928631</v>
+        <v>1.035939185383354</v>
       </c>
       <c r="F23">
-        <v>0.9956050946552709</v>
+        <v>1.052483708575918</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033019069737859</v>
+        <v>1.037002995123592</v>
       </c>
       <c r="J23">
-        <v>0.9923670863086185</v>
+        <v>1.043795516241711</v>
       </c>
       <c r="K23">
-        <v>1.007443206825753</v>
+        <v>1.046696002282787</v>
       </c>
       <c r="L23">
-        <v>0.9890485745944371</v>
+        <v>1.039580246693838</v>
       </c>
       <c r="M23">
-        <v>1.010949277921382</v>
+        <v>1.056063166101669</v>
       </c>
       <c r="N23">
-        <v>0.9937763613972724</v>
+        <v>1.045277825599793</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.973114788696019</v>
+        <v>1.039276141501754</v>
       </c>
       <c r="D24">
-        <v>1.001254281265689</v>
+        <v>1.044702471617891</v>
       </c>
       <c r="E24">
-        <v>0.9836271914884531</v>
+        <v>1.037809497531142</v>
       </c>
       <c r="F24">
-        <v>1.00569864861888</v>
+        <v>1.054296914351499</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036541161217344</v>
+        <v>1.037481428897546</v>
       </c>
       <c r="J24">
-        <v>1.001688538089331</v>
+        <v>1.045443741308884</v>
       </c>
       <c r="K24">
-        <v>1.015259406065074</v>
+        <v>1.048042442668515</v>
       </c>
       <c r="L24">
-        <v>0.9979480650167371</v>
+        <v>1.041173256546919</v>
       </c>
       <c r="M24">
-        <v>1.019626423244295</v>
+        <v>1.05760434347759</v>
       </c>
       <c r="N24">
-        <v>1.003111050708699</v>
+        <v>1.046928391335616</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9868647924968948</v>
+        <v>1.041792643708341</v>
       </c>
       <c r="D25">
-        <v>1.011341794781079</v>
+        <v>1.046578116853162</v>
       </c>
       <c r="E25">
-        <v>0.994975449425722</v>
+        <v>1.0399765432819</v>
       </c>
       <c r="F25">
-        <v>1.016751999737771</v>
+        <v>1.056397317832253</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040334096487622</v>
+        <v>1.038028217055872</v>
       </c>
       <c r="J25">
-        <v>1.011842441508559</v>
+        <v>1.047349609102093</v>
       </c>
       <c r="K25">
-        <v>1.023766558866163</v>
+        <v>1.049597154423302</v>
       </c>
       <c r="L25">
-        <v>1.007652269069964</v>
+        <v>1.043016004467665</v>
       </c>
       <c r="M25">
-        <v>1.029095711567181</v>
+        <v>1.059386492108155</v>
       </c>
       <c r="N25">
-        <v>1.013279373835451</v>
+        <v>1.048836965679697</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_140/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_140/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043795886242208</v>
+        <v>0.9972155131201937</v>
       </c>
       <c r="D2">
-        <v>1.04807019863398</v>
+        <v>1.018956392088035</v>
       </c>
       <c r="E2">
-        <v>1.041702456431755</v>
+        <v>1.003548690079526</v>
       </c>
       <c r="F2">
-        <v>1.058069750001876</v>
+        <v>1.02510865582571</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038457609427218</v>
+        <v>1.043149986566832</v>
       </c>
       <c r="J2">
-        <v>1.048864414368418</v>
+        <v>1.019479827878194</v>
       </c>
       <c r="K2">
-        <v>1.050831070492827</v>
+        <v>1.030157803226492</v>
       </c>
       <c r="L2">
-        <v>1.04448122347841</v>
+        <v>1.014958806419721</v>
       </c>
       <c r="M2">
-        <v>1.060802991205485</v>
+        <v>1.036228928151504</v>
       </c>
       <c r="N2">
-        <v>1.050353922143251</v>
+        <v>1.020927606169752</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045248276913191</v>
+        <v>1.004417527059052</v>
       </c>
       <c r="D3">
-        <v>1.049151377603628</v>
+        <v>1.024263565173075</v>
       </c>
       <c r="E3">
-        <v>1.042954254642426</v>
+        <v>1.009529164767499</v>
       </c>
       <c r="F3">
-        <v>1.059282513436259</v>
+        <v>1.030940388884404</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038765513952434</v>
+        <v>1.045084909754082</v>
       </c>
       <c r="J3">
-        <v>1.049961307204745</v>
+        <v>1.024788485990238</v>
       </c>
       <c r="K3">
-        <v>1.051723523757145</v>
+        <v>1.034595123691897</v>
       </c>
       <c r="L3">
-        <v>1.045542546163096</v>
+        <v>1.02004155295364</v>
       </c>
       <c r="M3">
-        <v>1.061828703637689</v>
+        <v>1.041192114725004</v>
       </c>
       <c r="N3">
-        <v>1.051452372693221</v>
+        <v>1.026243803185227</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046187122098743</v>
+        <v>1.008945235279726</v>
       </c>
       <c r="D4">
-        <v>1.049849976443717</v>
+        <v>1.027603263205051</v>
       </c>
       <c r="E4">
-        <v>1.043763648928317</v>
+        <v>1.013295277325724</v>
       </c>
       <c r="F4">
-        <v>1.060066551454325</v>
+        <v>1.034613555950088</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038962965834232</v>
+        <v>1.046289578825399</v>
       </c>
       <c r="J4">
-        <v>1.050669715832677</v>
+        <v>1.028122856233301</v>
       </c>
       <c r="K4">
-        <v>1.052299413263583</v>
+        <v>1.037379575750661</v>
       </c>
       <c r="L4">
-        <v>1.046228137410463</v>
+        <v>1.023235845217236</v>
       </c>
       <c r="M4">
-        <v>1.062491140053672</v>
+        <v>1.044311430674166</v>
       </c>
       <c r="N4">
-        <v>1.052161787342661</v>
+        <v>1.029582908616492</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04658159124978</v>
+        <v>1.010818671478796</v>
       </c>
       <c r="D5">
-        <v>1.050143432077041</v>
+        <v>1.028985783007243</v>
       </c>
       <c r="E5">
-        <v>1.044103778008186</v>
+        <v>1.014855017609979</v>
       </c>
       <c r="F5">
-        <v>1.060395996632397</v>
+        <v>1.036134926666722</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039045548957054</v>
+        <v>1.046785143368709</v>
       </c>
       <c r="J5">
-        <v>1.050967210535995</v>
+        <v>1.029501721239228</v>
       </c>
       <c r="K5">
-        <v>1.052541140197501</v>
+        <v>1.038530366816838</v>
       </c>
       <c r="L5">
-        <v>1.046516087037975</v>
+        <v>1.024557212026664</v>
       </c>
       <c r="M5">
-        <v>1.062769327881554</v>
+        <v>1.045601779355424</v>
       </c>
       <c r="N5">
-        <v>1.05245970452258</v>
+        <v>1.030963731768885</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046647811541866</v>
+        <v>1.011131516727576</v>
       </c>
       <c r="D6">
-        <v>1.050192690862146</v>
+        <v>1.029216684717137</v>
       </c>
       <c r="E6">
-        <v>1.044160879068674</v>
+        <v>1.015115560285143</v>
       </c>
       <c r="F6">
-        <v>1.060451302385721</v>
+        <v>1.036389065912564</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039059390100977</v>
+        <v>1.046867725602611</v>
       </c>
       <c r="J6">
-        <v>1.051017142538805</v>
+        <v>1.029731928790384</v>
       </c>
       <c r="K6">
-        <v>1.052581705192485</v>
+        <v>1.03872245629075</v>
       </c>
       <c r="L6">
-        <v>1.046564419149627</v>
+        <v>1.02477784498815</v>
       </c>
       <c r="M6">
-        <v>1.062816019315068</v>
+        <v>1.045817231766887</v>
       </c>
       <c r="N6">
-        <v>1.052509707434561</v>
+        <v>1.031194266241169</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.046192393877519</v>
+        <v>1.008970384002209</v>
       </c>
       <c r="D7">
-        <v>1.049853898532957</v>
+        <v>1.027621819535226</v>
       </c>
       <c r="E7">
-        <v>1.043768194295908</v>
+        <v>1.013316209500175</v>
       </c>
       <c r="F7">
-        <v>1.060070954158682</v>
+        <v>1.034633972766236</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038964070985001</v>
+        <v>1.046296242746745</v>
       </c>
       <c r="J7">
-        <v>1.050673692225062</v>
+        <v>1.028141369174649</v>
       </c>
       <c r="K7">
-        <v>1.052302644708385</v>
+        <v>1.03739502920142</v>
       </c>
       <c r="L7">
-        <v>1.046231986075346</v>
+        <v>1.023253584489384</v>
       </c>
       <c r="M7">
-        <v>1.062494858389682</v>
+        <v>1.044328753595371</v>
       </c>
       <c r="N7">
-        <v>1.052165769381979</v>
+        <v>1.029601447848341</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044286928374086</v>
+        <v>0.999677966952696</v>
       </c>
       <c r="D8">
-        <v>1.048435796331541</v>
+        <v>1.020770217734045</v>
       </c>
       <c r="E8">
-        <v>1.042125634766832</v>
+        <v>1.005592085854912</v>
       </c>
       <c r="F8">
-        <v>1.058479756297813</v>
+        <v>1.027101046309856</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038562037090171</v>
+        <v>1.043813996003378</v>
       </c>
       <c r="J8">
-        <v>1.049235397260499</v>
+        <v>1.021295514829549</v>
       </c>
       <c r="K8">
-        <v>1.051133009762967</v>
+        <v>1.031676005284905</v>
       </c>
       <c r="L8">
-        <v>1.044840143932087</v>
+        <v>1.016696837870296</v>
       </c>
       <c r="M8">
-        <v>1.061149899995938</v>
+        <v>1.037926015536744</v>
       </c>
       <c r="N8">
-        <v>1.050725431873591</v>
+        <v>1.02274587160484</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040921730484249</v>
+        <v>0.9822045175191624</v>
       </c>
       <c r="D9">
-        <v>1.045929145500188</v>
+        <v>1.007919037843313</v>
       </c>
       <c r="E9">
-        <v>1.039226435792704</v>
+        <v>0.9911239716197946</v>
       </c>
       <c r="F9">
-        <v>1.055670339356732</v>
+        <v>1.012999435603276</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037839893137452</v>
+        <v>1.03905459490712</v>
       </c>
       <c r="J9">
-        <v>1.046690386822725</v>
+        <v>1.008401718459059</v>
       </c>
       <c r="K9">
-        <v>1.049059669733557</v>
+        <v>1.020884927599923</v>
       </c>
       <c r="L9">
-        <v>1.042378524319849</v>
+        <v>1.004362716661045</v>
       </c>
       <c r="M9">
-        <v>1.05877005744075</v>
+        <v>1.025885068917574</v>
       </c>
       <c r="N9">
-        <v>1.048176807229079</v>
+        <v>1.009833764564565</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038672843394641</v>
+        <v>0.9696843584707741</v>
       </c>
       <c r="D10">
-        <v>1.044252615305567</v>
+        <v>0.998743164366683</v>
       </c>
       <c r="E10">
-        <v>1.03729015305504</v>
+        <v>0.9808032914314879</v>
       </c>
       <c r="F10">
-        <v>1.053793463360658</v>
+        <v>1.0029498988393</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037349170395984</v>
+        <v>1.035587159317122</v>
       </c>
       <c r="J10">
-        <v>1.044986368416006</v>
+        <v>0.9991546250987577</v>
       </c>
       <c r="K10">
-        <v>1.047668985084953</v>
+        <v>1.013135148508847</v>
       </c>
       <c r="L10">
-        <v>1.040731148388815</v>
+        <v>0.9955280197995312</v>
       </c>
       <c r="M10">
-        <v>1.057176669793846</v>
+        <v>1.017266095433651</v>
       </c>
       <c r="N10">
-        <v>1.046470368920768</v>
+        <v>1.000573539271035</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037697683170478</v>
+        <v>0.9640218824638235</v>
       </c>
       <c r="D11">
-        <v>1.043525325414452</v>
+        <v>0.9946034638654511</v>
       </c>
       <c r="E11">
-        <v>1.036450837245209</v>
+        <v>0.9761484987818618</v>
       </c>
       <c r="F11">
-        <v>1.052979773550935</v>
+        <v>0.9984207297338352</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037134460350637</v>
+        <v>1.034006693602346</v>
       </c>
       <c r="J11">
-        <v>1.044246711080027</v>
+        <v>0.9949719583563091</v>
       </c>
       <c r="K11">
-        <v>1.047064753705517</v>
+        <v>1.009627873620481</v>
       </c>
       <c r="L11">
-        <v>1.040016270276097</v>
+        <v>0.9915346867933408</v>
       </c>
       <c r="M11">
-        <v>1.056485050936561</v>
+        <v>1.01337249036002</v>
       </c>
       <c r="N11">
-        <v>1.045729661186533</v>
+        <v>0.9963849326620541</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037335251241452</v>
+        <v>0.9618789692274997</v>
       </c>
       <c r="D12">
-        <v>1.04325497200133</v>
+        <v>0.9930386199780737</v>
       </c>
       <c r="E12">
-        <v>1.036138938815684</v>
+        <v>0.9743890671169232</v>
       </c>
       <c r="F12">
-        <v>1.052677379825227</v>
+        <v>0.9967093816112546</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037054371807091</v>
+        <v>1.033406866248871</v>
       </c>
       <c r="J12">
-        <v>1.04397169310935</v>
+        <v>0.9933891343215775</v>
       </c>
       <c r="K12">
-        <v>1.046840002578618</v>
+        <v>1.008300415442868</v>
       </c>
       <c r="L12">
-        <v>1.039750494693594</v>
+        <v>0.9900239494464008</v>
       </c>
       <c r="M12">
-        <v>1.056227897768244</v>
+        <v>1.011899897385881</v>
       </c>
       <c r="N12">
-        <v>1.045454252658792</v>
+        <v>0.9947998608356408</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037413003918786</v>
+        <v>0.9623404832755058</v>
       </c>
       <c r="D13">
-        <v>1.043312973093887</v>
+        <v>0.9933755516571527</v>
       </c>
       <c r="E13">
-        <v>1.036205848466844</v>
+        <v>0.9747678921236915</v>
       </c>
       <c r="F13">
-        <v>1.052742251304154</v>
+        <v>0.9970778249078275</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037071566286665</v>
+        <v>1.03353612482271</v>
       </c>
       <c r="J13">
-        <v>1.044030697980798</v>
+        <v>0.9937300177495727</v>
       </c>
       <c r="K13">
-        <v>1.046888226669999</v>
+        <v>1.008586311050754</v>
       </c>
       <c r="L13">
-        <v>1.039807515303896</v>
+        <v>0.9903492879073381</v>
       </c>
       <c r="M13">
-        <v>1.056283069605618</v>
+        <v>1.012217001243898</v>
       </c>
       <c r="N13">
-        <v>1.045513341323925</v>
+        <v>0.9951412283572031</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037667728840877</v>
+        <v>0.9638455778926215</v>
       </c>
       <c r="D14">
-        <v>1.043502982134024</v>
+        <v>0.9944746811901342</v>
       </c>
       <c r="E14">
-        <v>1.036425058492104</v>
+        <v>0.9760037000889118</v>
       </c>
       <c r="F14">
-        <v>1.052954780739702</v>
+        <v>0.9982798754655058</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037127847063348</v>
+        <v>1.033957377810179</v>
       </c>
       <c r="J14">
-        <v>1.044223983674043</v>
+        <v>0.994841731908828</v>
       </c>
       <c r="K14">
-        <v>1.047046182108307</v>
+        <v>1.009518661392702</v>
       </c>
       <c r="L14">
-        <v>1.039994306066003</v>
+        <v>0.9914103822643167</v>
       </c>
       <c r="M14">
-        <v>1.056463799803317</v>
+        <v>1.013251315439078</v>
       </c>
       <c r="N14">
-        <v>1.045706901505026</v>
+        <v>0.9962545212780801</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037824644702308</v>
+        <v>0.9647675580455862</v>
       </c>
       <c r="D15">
-        <v>1.043620025613514</v>
+        <v>0.9951482210599158</v>
       </c>
       <c r="E15">
-        <v>1.036560102430467</v>
+        <v>0.9767610089456739</v>
       </c>
       <c r="F15">
-        <v>1.053085706721385</v>
+        <v>0.9990165796789779</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037162478980514</v>
+        <v>1.034215204567738</v>
       </c>
       <c r="J15">
-        <v>1.044343036607334</v>
+        <v>0.9955227513975035</v>
       </c>
       <c r="K15">
-        <v>1.047143462117465</v>
+        <v>1.010089778460695</v>
       </c>
       <c r="L15">
-        <v>1.040109362340187</v>
+        <v>0.9920604509873771</v>
       </c>
       <c r="M15">
-        <v>1.056575119715332</v>
+        <v>1.013885034832835</v>
       </c>
       <c r="N15">
-        <v>1.045826123507136</v>
+        <v>0.9969365078925438</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038737531945929</v>
+        <v>0.970054797964789</v>
       </c>
       <c r="D16">
-        <v>1.044300854536116</v>
+        <v>0.9990142163457103</v>
       </c>
       <c r="E16">
-        <v>1.037345836443518</v>
+        <v>0.9811080913567132</v>
       </c>
       <c r="F16">
-        <v>1.053847444042551</v>
+        <v>1.003246549993251</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037363373007251</v>
+        <v>1.035690310192504</v>
       </c>
       <c r="J16">
-        <v>1.045035418562424</v>
+        <v>0.9994282567987579</v>
       </c>
       <c r="K16">
-        <v>1.047709042292532</v>
+        <v>1.013364562104598</v>
       </c>
       <c r="L16">
-        <v>1.040778559370476</v>
+        <v>0.9957893245699944</v>
       </c>
       <c r="M16">
-        <v>1.057222534701789</v>
+        <v>1.017520927158792</v>
       </c>
       <c r="N16">
-        <v>1.046519488724021</v>
+        <v>1.000847559559435</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03930978827277</v>
+        <v>0.973304517899594</v>
       </c>
       <c r="D17">
-        <v>1.044727558585323</v>
+        <v>1.001393233791495</v>
       </c>
       <c r="E17">
-        <v>1.037838464090466</v>
+        <v>0.9837834611123404</v>
       </c>
       <c r="F17">
-        <v>1.054324993597161</v>
+        <v>1.005850781821953</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037488792032279</v>
+        <v>1.036593843182687</v>
       </c>
       <c r="J17">
-        <v>1.045469244433121</v>
+        <v>1.001828679689465</v>
       </c>
       <c r="K17">
-        <v>1.048063262711398</v>
+        <v>1.015376878592336</v>
       </c>
       <c r="L17">
-        <v>1.041197909821026</v>
+        <v>0.9980819276532931</v>
       </c>
       <c r="M17">
-        <v>1.057628190691861</v>
+        <v>1.019756997477031</v>
       </c>
       <c r="N17">
-        <v>1.046953930677214</v>
+        <v>1.00325139132598</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039643443300782</v>
+        <v>0.975177005727077</v>
       </c>
       <c r="D18">
-        <v>1.044976318702931</v>
+        <v>1.002764970074326</v>
       </c>
       <c r="E18">
-        <v>1.03812571968328</v>
+        <v>0.9853262102156961</v>
       </c>
       <c r="F18">
-        <v>1.054603444937047</v>
+        <v>1.007352816170805</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037561732363994</v>
+        <v>1.037113298203607</v>
       </c>
       <c r="J18">
-        <v>1.045722113796293</v>
+        <v>1.003211746129958</v>
       </c>
       <c r="K18">
-        <v>1.048269675400049</v>
+        <v>1.016536146604426</v>
       </c>
       <c r="L18">
-        <v>1.041442360272428</v>
+        <v>0.9994031325641067</v>
       </c>
       <c r="M18">
-        <v>1.057864641966092</v>
+        <v>1.021045826050446</v>
       </c>
       <c r="N18">
-        <v>1.047207159143887</v>
+        <v>1.004636421879458</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039757188797928</v>
+        <v>0.9758116672750333</v>
       </c>
       <c r="D19">
-        <v>1.045061117692865</v>
+        <v>1.003230060503364</v>
       </c>
       <c r="E19">
-        <v>1.038223652019774</v>
+        <v>0.985849308572577</v>
       </c>
       <c r="F19">
-        <v>1.054698373625105</v>
+        <v>1.00786215870772</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037586566802344</v>
+        <v>1.037289162038925</v>
       </c>
       <c r="J19">
-        <v>1.045808306362332</v>
+        <v>1.003680509461965</v>
       </c>
       <c r="K19">
-        <v>1.048340023308735</v>
+        <v>1.016929025408093</v>
       </c>
       <c r="L19">
-        <v>1.041525686328582</v>
+        <v>0.9998509730349425</v>
       </c>
       <c r="M19">
-        <v>1.057945238551941</v>
+        <v>1.021482724250045</v>
       </c>
       <c r="N19">
-        <v>1.047293474113256</v>
+        <v>1.005105850909164</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039248404331451</v>
+        <v>0.9729582577586197</v>
       </c>
       <c r="D20">
-        <v>1.04468179066569</v>
+        <v>1.001139647585442</v>
       </c>
       <c r="E20">
-        <v>1.037785618715472</v>
+        <v>0.9834982722572031</v>
       </c>
       <c r="F20">
-        <v>1.05427376693176</v>
+        <v>1.00557314357546</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03747535795221</v>
+        <v>1.036497690794084</v>
       </c>
       <c r="J20">
-        <v>1.045422717049018</v>
+        <v>1.001572917719946</v>
       </c>
       <c r="K20">
-        <v>1.048025278729908</v>
+        <v>1.015162487221682</v>
       </c>
       <c r="L20">
-        <v>1.041152932990928</v>
+        <v>0.9978376264323615</v>
       </c>
       <c r="M20">
-        <v>1.057584684325529</v>
+        <v>1.019518698779316</v>
       </c>
       <c r="N20">
-        <v>1.046907337218889</v>
+        <v>1.002995266145128</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037592724664793</v>
+        <v>0.9634034880426263</v>
       </c>
       <c r="D21">
-        <v>1.043447034914885</v>
+        <v>0.9941517837964394</v>
       </c>
       <c r="E21">
-        <v>1.036360510485857</v>
+        <v>0.9756406473068793</v>
       </c>
       <c r="F21">
-        <v>1.052892200379489</v>
+        <v>0.9979267225205953</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037111283056197</v>
+        <v>1.033833689631309</v>
       </c>
       <c r="J21">
-        <v>1.044167073522158</v>
+        <v>0.9945151861766348</v>
       </c>
       <c r="K21">
-        <v>1.046999676831357</v>
+        <v>1.009244805989435</v>
       </c>
       <c r="L21">
-        <v>1.039939307450104</v>
+        <v>0.9910986929853096</v>
       </c>
       <c r="M21">
-        <v>1.056410586339854</v>
+        <v>1.012947480525854</v>
       </c>
       <c r="N21">
-        <v>1.045649910534197</v>
+        <v>0.9959275118134919</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03655049145152</v>
+        <v>0.9571648015620553</v>
       </c>
       <c r="D22">
-        <v>1.042669503600139</v>
+        <v>0.9895997368739711</v>
       </c>
       <c r="E22">
-        <v>1.035463680668631</v>
+        <v>0.9705226804417484</v>
       </c>
       <c r="F22">
-        <v>1.052022666683743</v>
+        <v>0.992949885622835</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0368804318374</v>
+        <v>1.032084302770265</v>
       </c>
       <c r="J22">
-        <v>1.043375999520116</v>
+        <v>0.9899073991654881</v>
       </c>
       <c r="K22">
-        <v>1.046353029168676</v>
+        <v>1.005380079351225</v>
       </c>
       <c r="L22">
-        <v>1.039174873468775</v>
+        <v>0.9867016132511995</v>
       </c>
       <c r="M22">
-        <v>1.055670906224549</v>
+        <v>1.008662312477385</v>
       </c>
       <c r="N22">
-        <v>1.044857713116334</v>
+        <v>0.991313181216269</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03710311907066</v>
+        <v>0.9604952127370394</v>
       </c>
       <c r="D23">
-        <v>1.04308180195083</v>
+        <v>0.9920286812146629</v>
       </c>
       <c r="E23">
-        <v>1.035939185383354</v>
+        <v>0.9732535654928638</v>
       </c>
       <c r="F23">
-        <v>1.052483708575918</v>
+        <v>0.9956050946552718</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037002995123592</v>
+        <v>1.033019069737859</v>
       </c>
       <c r="J23">
-        <v>1.043795516241711</v>
+        <v>0.9923670863086193</v>
       </c>
       <c r="K23">
-        <v>1.046696002282787</v>
+        <v>1.007443206825754</v>
       </c>
       <c r="L23">
-        <v>1.039580246693838</v>
+        <v>0.9890485745944375</v>
       </c>
       <c r="M23">
-        <v>1.056063166101669</v>
+        <v>1.010949277921383</v>
       </c>
       <c r="N23">
-        <v>1.045277825599793</v>
+        <v>0.9937763613972731</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039276141501754</v>
+        <v>0.973114788696018</v>
       </c>
       <c r="D24">
-        <v>1.044702471617891</v>
+        <v>1.001254281265689</v>
       </c>
       <c r="E24">
-        <v>1.037809497531142</v>
+        <v>0.9836271914884522</v>
       </c>
       <c r="F24">
-        <v>1.054296914351499</v>
+        <v>1.00569864861888</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037481428897546</v>
+        <v>1.036541161217344</v>
       </c>
       <c r="J24">
-        <v>1.045443741308884</v>
+        <v>1.00168853808933</v>
       </c>
       <c r="K24">
-        <v>1.048042442668515</v>
+        <v>1.015259406065074</v>
       </c>
       <c r="L24">
-        <v>1.041173256546919</v>
+        <v>0.9979480650167363</v>
       </c>
       <c r="M24">
-        <v>1.05760434347759</v>
+        <v>1.019626423244294</v>
       </c>
       <c r="N24">
-        <v>1.046928391335616</v>
+        <v>1.003111050708698</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.041792643708341</v>
+        <v>0.9868647924968947</v>
       </c>
       <c r="D25">
-        <v>1.046578116853162</v>
+        <v>1.011341794781079</v>
       </c>
       <c r="E25">
-        <v>1.0399765432819</v>
+        <v>0.9949754494257218</v>
       </c>
       <c r="F25">
-        <v>1.056397317832253</v>
+        <v>1.016751999737771</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038028217055872</v>
+        <v>1.040334096487622</v>
       </c>
       <c r="J25">
-        <v>1.047349609102093</v>
+        <v>1.011842441508559</v>
       </c>
       <c r="K25">
-        <v>1.049597154423302</v>
+        <v>1.023766558866163</v>
       </c>
       <c r="L25">
-        <v>1.043016004467665</v>
+        <v>1.007652269069964</v>
       </c>
       <c r="M25">
-        <v>1.059386492108155</v>
+        <v>1.029095711567182</v>
       </c>
       <c r="N25">
-        <v>1.048836965679697</v>
+        <v>1.013279373835451</v>
       </c>
     </row>
   </sheetData>
